--- a/Resultados/RESULTADOS_3.xlsx
+++ b/Resultados/RESULTADOS_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,10 +573,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.25</v>
+        <v>2.16</v>
       </c>
       <c r="E2" t="n">
-        <v>44.54</v>
+        <v>46.38</v>
       </c>
       <c r="F2" t="n">
         <v>39.93</v>
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.79</v>
+        <v>2.74</v>
       </c>
       <c r="E3" t="n">
-        <v>35.83</v>
+        <v>36.54</v>
       </c>
       <c r="F3" t="n">
         <v>32.83</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3.02</v>
+        <v>2.98</v>
       </c>
       <c r="E4" t="n">
-        <v>33.16</v>
+        <v>33.57</v>
       </c>
       <c r="F4" t="n">
         <v>30.59</v>
@@ -819,10 +819,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3.06</v>
+        <v>3.03</v>
       </c>
       <c r="E5" t="n">
-        <v>32.69</v>
+        <v>32.97</v>
       </c>
       <c r="F5" t="n">
         <v>30.29</v>
@@ -904,7 +904,7 @@
         <v>3.08</v>
       </c>
       <c r="E6" t="n">
-        <v>32.47</v>
+        <v>32.51</v>
       </c>
       <c r="F6" t="n">
         <v>29.96</v>
@@ -986,7 +986,7 @@
         <v>3.07</v>
       </c>
       <c r="E7" t="n">
-        <v>32.53</v>
+        <v>32.54</v>
       </c>
       <c r="F7" t="n">
         <v>30</v>
@@ -1049,6 +1049,88 @@
         <v>1</v>
       </c>
       <c r="Z7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>40</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E8" t="n">
+        <v>32.44</v>
+      </c>
+      <c r="F8" t="n">
+        <v>29.92</v>
+      </c>
+      <c r="G8" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I8" t="n">
+        <v>31</v>
+      </c>
+      <c r="J8" t="n">
+        <v>97.26000000000001</v>
+      </c>
+      <c r="K8" t="n">
+        <v>37.55</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="O8" t="n">
+        <v>12229.54</v>
+      </c>
+      <c r="P8" t="n">
+        <v>202.02</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R8" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="S8" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T8" t="n">
+        <v>23904.46</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X8" t="n">
+        <v>23.99</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="n">
         <v>10</v>
       </c>
     </row>
